--- a/acp_test/step_overshoot/acp_step_overshoot_calc.xlsx
+++ b/acp_test/step_overshoot/acp_step_overshoot_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditte\aauRepo\esd7_git\3Dprinter-BLDC-control\acp_test\step_overshoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE9E61C4-7190-49D4-B5B2-6B6DCD1C7B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D19609-7EF4-412B-9C9B-F3740E5B810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{7B5F0ADA-1323-4376-9B9A-11C70D0C6CCC}"/>
   </bookViews>
@@ -21,20 +21,27 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">acp_step_overshoot_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">acp_step_overshoot_1!$E$2:$E$861</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$E$96:$E$464</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">[1]acp_step_overshoot2!$E$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">[1]acp_step_overshoot2!$E$2:$E$95</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">acp_step_overshoot_1!$E$2:$E$95</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">acp_step_overshoot_1!$E$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">acp_step_overshoot_1!$E$2:$E$861</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">acp_step_overshoot_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">acp_step_overshoot_1!$E$2:$E$95</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">acp_step_overshoot_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">acp_step_overshoot_1!$E$2:$E$861</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$96:$E$464</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$96:$E$464</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">[1]acp_step_overshoot2!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">[1]acp_step_overshoot2!$E$2:$E$95</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$96:$E$464</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -11629,8 +11636,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Chart Title</a:t>
+              <a:t>Deviancy and </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>ω</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> over time, 0-1s</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -11638,8 +11654,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.44260061499363101"/>
-          <c:y val="2.5494491396314767E-2"/>
+          <c:x val="0.3861756454908663"/>
+          <c:y val="2.0066504394803595E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -17427,7 +17443,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time [s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17544,7 +17560,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Title</a:t>
+                  <a:t>Speed [rad/s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17648,7 +17664,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Title</a:t>
+                  <a:t>Deviancy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17851,11 +17867,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Averaged</a:t>
+              <a:t>Deviancy and </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> values</a:t>
+              <a:rPr lang="el-GR"/>
+              <a:t>ω</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> over time 1-5s</a:t>
             </a:r>
             <a:endParaRPr lang="da-DK"/>
           </a:p>
@@ -17865,8 +17885,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.45837214347496569"/>
-          <c:y val="3.0925530323904448E-2"/>
+          <c:x val="0.38301862216820137"/>
+          <c:y val="2.5494562325431302E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -17894,7 +17914,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17907,6 +17927,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]acp_step_overshoot2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> angular velocity[rad/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -17932,1680 +17963,2797 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$B$464</c:f>
-              <c:strCache>
-                <c:ptCount val="464"/>
+            <c:numRef>
+              <c:f>[1]acp_step_overshoot2!$B$2:$B$464</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="463"/>
                 <c:pt idx="0">
-                  <c:v>time[s]</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0923E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010923</c:v>
+                  <c:v>2.1638999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.021639</c:v>
+                  <c:v>3.2370999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.032371</c:v>
+                  <c:v>4.3060999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.043061</c:v>
+                  <c:v>5.3748999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.053749</c:v>
+                  <c:v>6.4437999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.064438</c:v>
+                  <c:v>7.5130000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.07513</c:v>
+                  <c:v>8.5822999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.085823</c:v>
+                  <c:v>9.651499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.096515</c:v>
+                  <c:v>0.107206</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.107206</c:v>
+                  <c:v>0.117893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.117893</c:v>
+                  <c:v>0.128611</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.128611</c:v>
+                  <c:v>0.139295</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.139295</c:v>
+                  <c:v>0.14998400000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.149984</c:v>
+                  <c:v>0.16067400000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.160674</c:v>
+                  <c:v>0.17135900000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.171359</c:v>
+                  <c:v>0.18204400000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.182044</c:v>
+                  <c:v>0.19272800000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.192728</c:v>
+                  <c:v>0.20342100000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.203421</c:v>
+                  <c:v>0.21410900000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.214109</c:v>
+                  <c:v>0.22480300000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.224803</c:v>
+                  <c:v>0.23552700000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.235527</c:v>
+                  <c:v>0.24621400000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.246214</c:v>
+                  <c:v>0.25690700000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.256907</c:v>
+                  <c:v>0.26760200000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.267602</c:v>
+                  <c:v>0.27829400000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.278294</c:v>
+                  <c:v>0.28898500000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.288985</c:v>
+                  <c:v>0.29967600000000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.299676</c:v>
+                  <c:v>0.31037600000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.310376</c:v>
+                  <c:v>0.32106600000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.321066</c:v>
+                  <c:v>0.331758</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.331758</c:v>
+                  <c:v>0.34245199999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.342452</c:v>
+                  <c:v>0.35314199999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.353142</c:v>
+                  <c:v>0.36383599999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.363836</c:v>
+                  <c:v>0.37452699999999994</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.374527</c:v>
+                  <c:v>0.38521399999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.385214</c:v>
+                  <c:v>0.39590999999999993</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.39591</c:v>
+                  <c:v>0.4065979999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.406598</c:v>
+                  <c:v>0.41728499999999991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.417285</c:v>
+                  <c:v>0.42797499999999988</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.427975</c:v>
+                  <c:v>0.43866999999999989</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.43867</c:v>
+                  <c:v>0.44935999999999987</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.44936</c:v>
+                  <c:v>0.46005199999999985</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.460052</c:v>
+                  <c:v>0.47074399999999983</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.470744</c:v>
+                  <c:v>0.48143499999999984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.481435</c:v>
+                  <c:v>0.49212699999999981</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.492127</c:v>
+                  <c:v>0.50282399999999983</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.502824</c:v>
+                  <c:v>0.51351799999999981</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.513518</c:v>
+                  <c:v>0.52420699999999976</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.524207</c:v>
+                  <c:v>0.53489499999999979</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.534895</c:v>
+                  <c:v>0.5456209999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.545621</c:v>
+                  <c:v>0.5563079999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.556308</c:v>
+                  <c:v>0.5669949999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.566995</c:v>
+                  <c:v>0.57768299999999984</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.577683</c:v>
+                  <c:v>0.58837499999999987</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.588375</c:v>
+                  <c:v>0.59906399999999982</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.599064</c:v>
+                  <c:v>0.60975699999999977</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.609757</c:v>
+                  <c:v>0.62045099999999975</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.620451</c:v>
+                  <c:v>0.63114299999999979</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.631143</c:v>
+                  <c:v>0.64183299999999976</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.641833</c:v>
+                  <c:v>0.65252699999999975</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.652527</c:v>
+                  <c:v>0.66321599999999969</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.663216</c:v>
+                  <c:v>0.67390999999999968</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.67391</c:v>
+                  <c:v>0.68459599999999965</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.684596</c:v>
+                  <c:v>0.69528599999999963</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.695286</c:v>
+                  <c:v>0.70597999999999961</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.70598</c:v>
+                  <c:v>0.71666999999999959</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.71667</c:v>
+                  <c:v>0.72736299999999954</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.727363</c:v>
+                  <c:v>0.73805699999999952</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.738057</c:v>
+                  <c:v>0.74874399999999952</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.748744</c:v>
+                  <c:v>0.7594339999999995</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.759434</c:v>
+                  <c:v>0.77012999999999954</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.77013</c:v>
+                  <c:v>0.78082099999999954</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.780821</c:v>
+                  <c:v>0.79151499999999952</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.791515</c:v>
+                  <c:v>0.80220699999999956</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.802207</c:v>
+                  <c:v>0.81289799999999957</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.812898</c:v>
+                  <c:v>0.82359099999999952</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.823591</c:v>
+                  <c:v>0.83428599999999953</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.834286</c:v>
+                  <c:v>0.84497899999999948</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.844979</c:v>
+                  <c:v>0.85567399999999949</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.855674</c:v>
+                  <c:v>0.86635799999999952</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.866358</c:v>
+                  <c:v>0.87704999999999955</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.87705</c:v>
+                  <c:v>0.88777499999999954</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.887775</c:v>
+                  <c:v>0.89846499999999951</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.898465</c:v>
+                  <c:v>0.90915799999999947</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.909158</c:v>
+                  <c:v>0.91984799999999944</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.919848</c:v>
+                  <c:v>0.9305409999999994</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.930541</c:v>
+                  <c:v>0.94123499999999938</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.941235</c:v>
+                  <c:v>0.95193499999999942</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.951935</c:v>
+                  <c:v>0.9626289999999994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.962629</c:v>
+                  <c:v>0.97331699999999943</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.973317</c:v>
+                  <c:v>0.98400599999999938</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.984006</c:v>
+                  <c:v>0.99469799999999942</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.994698</c:v>
+                  <c:v>1.0053899999999993</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.00539</c:v>
+                  <c:v>1.0160819999999993</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.016082</c:v>
+                  <c:v>1.0267719999999994</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.026772</c:v>
+                  <c:v>1.0374619999999994</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.037462</c:v>
+                  <c:v>1.0481569999999993</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.048157</c:v>
+                  <c:v>1.0588479999999993</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.058848</c:v>
+                  <c:v>1.0695669999999993</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.069567</c:v>
+                  <c:v>1.0802529999999992</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.080253</c:v>
+                  <c:v>1.0909509999999993</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.090951</c:v>
+                  <c:v>1.1016399999999993</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.10164</c:v>
+                  <c:v>1.1123329999999994</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.112333</c:v>
+                  <c:v>1.1230249999999993</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.123025</c:v>
+                  <c:v>1.1337179999999993</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.133718</c:v>
+                  <c:v>1.1444119999999993</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.144412</c:v>
+                  <c:v>1.1551059999999993</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.155106</c:v>
+                  <c:v>1.1657979999999992</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.165798</c:v>
+                  <c:v>1.1764919999999992</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.176492</c:v>
+                  <c:v>1.1871889999999992</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.187189</c:v>
+                  <c:v>1.1978829999999991</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.197883</c:v>
+                  <c:v>1.2085679999999992</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.208568</c:v>
+                  <c:v>1.2192599999999991</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.21926</c:v>
+                  <c:v>1.2299499999999992</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.22995</c:v>
+                  <c:v>1.2406379999999992</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.240638</c:v>
+                  <c:v>1.2513289999999992</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.251329</c:v>
+                  <c:v>1.2620189999999993</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.262019</c:v>
+                  <c:v>1.2727119999999994</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.272712</c:v>
+                  <c:v>1.2834029999999994</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.283403</c:v>
+                  <c:v>1.2940939999999994</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.294094</c:v>
+                  <c:v>1.3047869999999995</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.304787</c:v>
+                  <c:v>1.3154799999999995</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.31548</c:v>
+                  <c:v>1.3261689999999995</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.326169</c:v>
+                  <c:v>1.3368559999999994</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.336856</c:v>
+                  <c:v>1.3475489999999994</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.347549</c:v>
+                  <c:v>1.3582769999999995</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.358277</c:v>
+                  <c:v>1.3689679999999995</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.368968</c:v>
+                  <c:v>1.3796589999999995</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.379659</c:v>
+                  <c:v>1.3903599999999996</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.39036</c:v>
+                  <c:v>1.4010459999999996</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.401046</c:v>
+                  <c:v>1.4117389999999996</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.411739</c:v>
+                  <c:v>1.4224289999999997</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.422429</c:v>
+                  <c:v>1.4331159999999996</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.433116</c:v>
+                  <c:v>1.4438079999999995</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.443808</c:v>
+                  <c:v>1.4545039999999996</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.454504</c:v>
+                  <c:v>1.4651899999999995</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.46519</c:v>
+                  <c:v>1.4758779999999996</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.475878</c:v>
+                  <c:v>1.4865689999999996</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.486569</c:v>
+                  <c:v>1.4972619999999996</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.497262</c:v>
+                  <c:v>1.5079569999999995</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.507957</c:v>
+                  <c:v>1.5186509999999995</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1.518651</c:v>
+                  <c:v>1.5293439999999996</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1.529344</c:v>
+                  <c:v>1.5400379999999996</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.540038</c:v>
+                  <c:v>1.5507299999999995</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.55073</c:v>
+                  <c:v>1.5614119999999996</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1.561412</c:v>
+                  <c:v>1.5721069999999995</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.572107</c:v>
+                  <c:v>1.5828049999999996</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.582805</c:v>
+                  <c:v>1.5935049999999995</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.593505</c:v>
+                  <c:v>1.6041919999999994</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.604192</c:v>
+                  <c:v>1.6148819999999995</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.614882</c:v>
+                  <c:v>1.6255729999999995</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.625573</c:v>
+                  <c:v>1.6362639999999995</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.636264</c:v>
+                  <c:v>1.6469549999999995</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.646955</c:v>
+                  <c:v>1.6576479999999996</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.657648</c:v>
+                  <c:v>1.6683409999999996</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.668341</c:v>
+                  <c:v>1.6790309999999997</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.679031</c:v>
+                  <c:v>1.6897229999999996</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.689723</c:v>
+                  <c:v>1.7004129999999997</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.700413</c:v>
+                  <c:v>1.7111019999999997</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.711102</c:v>
+                  <c:v>1.7217929999999997</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.721793</c:v>
+                  <c:v>1.7324939999999998</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.732494</c:v>
+                  <c:v>1.7431819999999998</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.743182</c:v>
+                  <c:v>1.7538689999999997</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.753869</c:v>
+                  <c:v>1.7645639999999996</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.764564</c:v>
+                  <c:v>1.7752809999999997</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.775281</c:v>
+                  <c:v>1.7859679999999996</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.785968</c:v>
+                  <c:v>1.7966559999999996</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.796656</c:v>
+                  <c:v>1.8073489999999997</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.807349</c:v>
+                  <c:v>1.8180399999999997</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.81804</c:v>
+                  <c:v>1.8287289999999996</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.828729</c:v>
+                  <c:v>1.8394179999999996</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.839418</c:v>
+                  <c:v>1.8501039999999995</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.850104</c:v>
+                  <c:v>1.8607939999999996</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.860794</c:v>
+                  <c:v>1.8714869999999997</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.871487</c:v>
+                  <c:v>1.8821769999999998</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.882177</c:v>
+                  <c:v>1.8928629999999997</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.892863</c:v>
+                  <c:v>1.9035529999999998</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.903553</c:v>
+                  <c:v>1.9142809999999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.914281</c:v>
+                  <c:v>1.9249669999999999</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.924967</c:v>
+                  <c:v>1.9356589999999998</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.935659</c:v>
+                  <c:v>1.9463509999999997</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.946351</c:v>
+                  <c:v>1.9570399999999997</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.95704</c:v>
+                  <c:v>1.9677229999999997</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.967723</c:v>
+                  <c:v>1.9784239999999997</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.978424</c:v>
+                  <c:v>1.9891159999999997</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.989116</c:v>
+                  <c:v>1.9998079999999996</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.999808</c:v>
+                  <c:v>2.0105059999999995</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.010506</c:v>
+                  <c:v>2.0212289999999995</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.021229</c:v>
+                  <c:v>2.0319219999999993</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.031922</c:v>
+                  <c:v>2.0426119999999992</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.042612</c:v>
+                  <c:v>2.0532999999999992</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.0533</c:v>
+                  <c:v>2.0639899999999991</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.06399</c:v>
+                  <c:v>2.074679999999999</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.07468</c:v>
+                  <c:v>2.085373999999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.085374</c:v>
+                  <c:v>2.0960639999999988</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.096064</c:v>
+                  <c:v>2.106755999999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.106756</c:v>
+                  <c:v>2.1174429999999989</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.117443</c:v>
+                  <c:v>2.128140999999999</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.128141</c:v>
+                  <c:v>2.1388299999999991</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.13883</c:v>
+                  <c:v>2.1495239999999991</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.149524</c:v>
+                  <c:v>2.160213999999999</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.160214</c:v>
+                  <c:v>2.1709039999999988</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.170904</c:v>
+                  <c:v>2.1816049999999989</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.181605</c:v>
+                  <c:v>2.1922919999999988</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.192292</c:v>
+                  <c:v>2.2029849999999986</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.202985</c:v>
+                  <c:v>2.2136829999999987</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.213683</c:v>
+                  <c:v>2.2243739999999987</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.224374</c:v>
+                  <c:v>2.2350629999999989</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.235063</c:v>
+                  <c:v>2.2457509999999989</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.245751</c:v>
+                  <c:v>2.256448999999999</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.256449</c:v>
+                  <c:v>2.267145999999999</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.267146</c:v>
+                  <c:v>2.2778329999999989</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.277833</c:v>
+                  <c:v>2.288527999999999</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.288528</c:v>
+                  <c:v>2.2992169999999992</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.299217</c:v>
+                  <c:v>2.3099139999999991</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.309914</c:v>
+                  <c:v>2.3206029999999993</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.320603</c:v>
+                  <c:v>2.3312919999999995</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.331292</c:v>
+                  <c:v>2.3419839999999996</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.341984</c:v>
+                  <c:v>2.3526779999999996</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.352678</c:v>
+                  <c:v>2.3633709999999994</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.363371</c:v>
+                  <c:v>2.3740629999999996</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.374063</c:v>
+                  <c:v>2.3847549999999997</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.384755</c:v>
+                  <c:v>2.3954469999999999</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.395447</c:v>
+                  <c:v>2.4061379999999999</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.406138</c:v>
+                  <c:v>2.4168259999999999</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.416826</c:v>
+                  <c:v>2.427556</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.427556</c:v>
+                  <c:v>2.4382489999999999</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.438249</c:v>
+                  <c:v>2.448941</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.448941</c:v>
+                  <c:v>2.4596290000000001</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.459629</c:v>
+                  <c:v>2.4703219999999999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.470322</c:v>
+                  <c:v>2.4810219999999998</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.481022</c:v>
+                  <c:v>2.4917129999999998</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.491713</c:v>
+                  <c:v>2.5024069999999998</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.502407</c:v>
+                  <c:v>2.5130999999999997</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.5131</c:v>
+                  <c:v>2.5237929999999995</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.523793</c:v>
+                  <c:v>2.5344899999999995</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.53449</c:v>
+                  <c:v>2.5451789999999996</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.545179</c:v>
+                  <c:v>2.5558739999999998</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.555874</c:v>
+                  <c:v>2.5665629999999999</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.566563</c:v>
+                  <c:v>2.5772569999999999</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.577257</c:v>
+                  <c:v>2.5879439999999998</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.587944</c:v>
+                  <c:v>2.598633</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.598633</c:v>
+                  <c:v>2.6093289999999998</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.609329</c:v>
+                  <c:v>2.6200259999999997</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.620026</c:v>
+                  <c:v>2.6307119999999999</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.630712</c:v>
+                  <c:v>2.6414040000000001</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.641404</c:v>
+                  <c:v>2.6520930000000003</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.652093</c:v>
+                  <c:v>2.6628180000000001</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.662818</c:v>
+                  <c:v>2.6735139999999999</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.673514</c:v>
+                  <c:v>2.684202</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.684202</c:v>
+                  <c:v>2.6948940000000001</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.694894</c:v>
+                  <c:v>2.7055880000000001</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.705588</c:v>
+                  <c:v>2.7162800000000002</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.71628</c:v>
+                  <c:v>2.7269700000000001</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.72697</c:v>
+                  <c:v>2.7376620000000003</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.737662</c:v>
+                  <c:v>2.7483570000000004</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.748357</c:v>
+                  <c:v>2.7590440000000003</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.759044</c:v>
+                  <c:v>2.7697330000000004</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.769733</c:v>
+                  <c:v>2.7804290000000003</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.780429</c:v>
+                  <c:v>2.7911160000000002</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.791116</c:v>
+                  <c:v>2.801806</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.801806</c:v>
+                  <c:v>2.812497</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.812497</c:v>
+                  <c:v>2.8231820000000001</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2.823182</c:v>
+                  <c:v>2.8338730000000001</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2.833873</c:v>
+                  <c:v>2.8445650000000002</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2.844565</c:v>
+                  <c:v>2.8552530000000003</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2.855253</c:v>
+                  <c:v>2.8659440000000003</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2.865944</c:v>
+                  <c:v>2.8766330000000004</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2.876633</c:v>
+                  <c:v>2.8873240000000004</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2.887324</c:v>
+                  <c:v>2.8980200000000003</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2.89802</c:v>
+                  <c:v>2.9087160000000001</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2.908716</c:v>
+                  <c:v>2.9194080000000002</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2.919408</c:v>
+                  <c:v>2.9301010000000001</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2.930101</c:v>
+                  <c:v>2.9408189999999998</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2.940819</c:v>
+                  <c:v>2.951514</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2.951514</c:v>
+                  <c:v>2.9622060000000001</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2.962206</c:v>
+                  <c:v>2.9728980000000003</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2.972898</c:v>
+                  <c:v>2.9835880000000001</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2.983588</c:v>
+                  <c:v>2.9942800000000003</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2.99428</c:v>
+                  <c:v>3.0050050000000001</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>3.005005</c:v>
+                  <c:v>3.015701</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>3.015701</c:v>
+                  <c:v>3.0263939999999998</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>3.026394</c:v>
+                  <c:v>3.0370869999999996</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>3.037087</c:v>
+                  <c:v>3.0477809999999996</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>3.047781</c:v>
+                  <c:v>3.0584719999999996</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>3.058472</c:v>
+                  <c:v>3.0691639999999998</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>3.069164</c:v>
+                  <c:v>3.0798519999999998</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>3.079852</c:v>
+                  <c:v>3.0905479999999996</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>3.090548</c:v>
+                  <c:v>3.1012379999999995</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>3.101238</c:v>
+                  <c:v>3.1119299999999996</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>3.11193</c:v>
+                  <c:v>3.1226229999999995</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>3.122623</c:v>
+                  <c:v>3.1333179999999996</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>3.133318</c:v>
+                  <c:v>3.1440119999999996</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>3.144012</c:v>
+                  <c:v>3.1547029999999996</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>3.154703</c:v>
+                  <c:v>3.1653949999999997</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>3.165395</c:v>
+                  <c:v>3.1760859999999997</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>3.176086</c:v>
+                  <c:v>3.1867769999999997</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>3.186777</c:v>
+                  <c:v>3.1974689999999999</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>3.197469</c:v>
+                  <c:v>3.2081629999999999</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>3.208163</c:v>
+                  <c:v>3.2188539999999999</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>3.218854</c:v>
+                  <c:v>3.2295479999999999</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>3.229548</c:v>
+                  <c:v>3.2402389999999999</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>3.240239</c:v>
+                  <c:v>3.2509349999999997</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>3.250935</c:v>
+                  <c:v>3.2616269999999998</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>3.261627</c:v>
+                  <c:v>3.2723179999999998</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>3.272318</c:v>
+                  <c:v>3.28301</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>3.28301</c:v>
+                  <c:v>3.293698</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>3.293698</c:v>
+                  <c:v>3.3043960000000001</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>3.304396</c:v>
+                  <c:v>3.3150880000000003</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>3.315088</c:v>
+                  <c:v>3.3257790000000003</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>3.325779</c:v>
+                  <c:v>3.3364720000000001</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>3.336472</c:v>
+                  <c:v>3.3471630000000001</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>3.347163</c:v>
+                  <c:v>3.3578550000000003</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>3.357855</c:v>
+                  <c:v>3.3685490000000002</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>3.368549</c:v>
+                  <c:v>3.3792380000000004</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>3.379238</c:v>
+                  <c:v>3.3899240000000006</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>3.389924</c:v>
+                  <c:v>3.4006140000000005</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>3.400614</c:v>
+                  <c:v>3.4113110000000004</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>3.411311</c:v>
+                  <c:v>3.4219990000000005</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>3.421999</c:v>
+                  <c:v>3.4326870000000005</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>3.432687</c:v>
+                  <c:v>3.4433740000000004</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>3.443374</c:v>
+                  <c:v>3.4540730000000002</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>3.454073</c:v>
+                  <c:v>3.4647610000000002</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>3.464761</c:v>
+                  <c:v>3.4754610000000001</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>3.475461</c:v>
+                  <c:v>3.4861520000000001</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>3.486152</c:v>
+                  <c:v>3.496842</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>3.496842</c:v>
+                  <c:v>3.5075409999999998</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>3.507541</c:v>
+                  <c:v>3.5182289999999998</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>3.518229</c:v>
+                  <c:v>3.5289169999999999</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>3.528917</c:v>
+                  <c:v>3.5396459999999998</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>3.539646</c:v>
+                  <c:v>3.5503709999999997</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>3.550371</c:v>
+                  <c:v>3.5610739999999996</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>3.561074</c:v>
+                  <c:v>3.5717649999999996</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>3.571765</c:v>
+                  <c:v>3.5824559999999996</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>3.582456</c:v>
+                  <c:v>3.5931489999999995</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>3.593149</c:v>
+                  <c:v>3.6038429999999995</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>3.603843</c:v>
+                  <c:v>3.6145369999999994</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>3.614537</c:v>
+                  <c:v>3.6252309999999994</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>3.625231</c:v>
+                  <c:v>3.6359239999999993</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>3.635924</c:v>
+                  <c:v>3.6466179999999992</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>3.646618</c:v>
+                  <c:v>3.6573089999999993</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>3.657309</c:v>
+                  <c:v>3.6679989999999991</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>3.667999</c:v>
+                  <c:v>3.6786969999999992</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>3.678697</c:v>
+                  <c:v>3.6893859999999994</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>3.689386</c:v>
+                  <c:v>3.7000769999999994</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>3.700077</c:v>
+                  <c:v>3.7107729999999992</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>3.710773</c:v>
+                  <c:v>3.7214609999999992</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>3.721461</c:v>
+                  <c:v>3.7321529999999994</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>3.732153</c:v>
+                  <c:v>3.7428409999999994</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>3.742841</c:v>
+                  <c:v>3.7535409999999994</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>3.753541</c:v>
+                  <c:v>3.7642369999999992</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>3.764237</c:v>
+                  <c:v>3.7749309999999991</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>3.774931</c:v>
+                  <c:v>3.7856229999999993</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>3.785623</c:v>
+                  <c:v>3.7963109999999993</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>3.796311</c:v>
+                  <c:v>3.8070039999999992</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>3.807004</c:v>
+                  <c:v>3.8176919999999992</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>3.817692</c:v>
+                  <c:v>3.8283829999999992</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>3.828383</c:v>
+                  <c:v>3.8390769999999992</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>3.839077</c:v>
+                  <c:v>3.8497749999999993</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>3.849775</c:v>
+                  <c:v>3.8604719999999992</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>3.860472</c:v>
+                  <c:v>3.8711609999999994</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>3.871161</c:v>
+                  <c:v>3.8818539999999992</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>3.881854</c:v>
+                  <c:v>3.8925519999999993</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>3.892552</c:v>
+                  <c:v>3.9032739999999992</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>3.903274</c:v>
+                  <c:v>3.9139609999999991</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>3.913961</c:v>
+                  <c:v>3.9246529999999993</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>3.924653</c:v>
+                  <c:v>3.9353479999999994</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>3.935348</c:v>
+                  <c:v>3.9460409999999992</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>3.946041</c:v>
+                  <c:v>3.9567269999999994</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>3.956727</c:v>
+                  <c:v>3.9674129999999996</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>3.967413</c:v>
+                  <c:v>3.9781119999999994</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>3.978112</c:v>
+                  <c:v>3.9888039999999996</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>3.988804</c:v>
+                  <c:v>3.9994889999999996</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>3.999489</c:v>
+                  <c:v>4.0101819999999995</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>4.010182</c:v>
+                  <c:v>4.020872999999999</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>4.020873</c:v>
+                  <c:v>4.0315649999999987</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>4.031565</c:v>
+                  <c:v>4.0422579999999986</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>4.042258</c:v>
+                  <c:v>4.0529489999999981</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>4.052949</c:v>
+                  <c:v>4.0636349999999979</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>4.063635</c:v>
+                  <c:v>4.0743279999999977</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>4.074328</c:v>
+                  <c:v>4.0850159999999978</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>4.085016</c:v>
+                  <c:v>4.0957129999999982</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>4.095713</c:v>
+                  <c:v>4.1064049999999979</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>4.106405</c:v>
+                  <c:v>4.1170989999999978</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>4.117099</c:v>
+                  <c:v>4.1277899999999974</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>4.12779</c:v>
+                  <c:v>4.1384799999999977</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>4.13848</c:v>
+                  <c:v>4.1491749999999978</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>4.149175</c:v>
+                  <c:v>4.1598679999999977</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>4.159868</c:v>
+                  <c:v>4.1705589999999972</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>4.170559</c:v>
+                  <c:v>4.1812559999999976</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>4.181256</c:v>
+                  <c:v>4.1919499999999976</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>4.19195</c:v>
+                  <c:v>4.2026439999999976</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>4.202644</c:v>
+                  <c:v>4.2133379999999976</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>4.213338</c:v>
+                  <c:v>4.2240329999999977</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>4.224033</c:v>
+                  <c:v>4.2347219999999979</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>4.234722</c:v>
+                  <c:v>4.2454159999999979</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>4.245416</c:v>
+                  <c:v>4.2561069999999974</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>4.256107</c:v>
+                  <c:v>4.2668069999999974</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>4.266807</c:v>
+                  <c:v>4.2774939999999972</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>4.277494</c:v>
+                  <c:v>4.2881829999999974</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>4.288183</c:v>
+                  <c:v>4.298873999999997</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>4.298874</c:v>
+                  <c:v>4.3095629999999971</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>4.309563</c:v>
+                  <c:v>4.3202539999999967</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>4.320254</c:v>
+                  <c:v>4.3309489999999968</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>4.330949</c:v>
+                  <c:v>4.3416449999999971</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>4.341645</c:v>
+                  <c:v>4.3523379999999969</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>4.352338</c:v>
+                  <c:v>4.3630309999999968</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>4.363031</c:v>
+                  <c:v>4.3737259999999969</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>4.373726</c:v>
+                  <c:v>4.3844119999999966</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>4.384412</c:v>
+                  <c:v>4.3951049999999965</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>4.395105</c:v>
+                  <c:v>4.4057899999999961</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>4.40579</c:v>
+                  <c:v>4.4164829999999959</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>4.416483</c:v>
+                  <c:v>4.4271739999999955</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>4.427174</c:v>
+                  <c:v>4.4378659999999952</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>4.437866</c:v>
+                  <c:v>4.4485579999999949</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>4.448558</c:v>
+                  <c:v>4.4592509999999947</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>4.459251</c:v>
+                  <c:v>4.4699449999999947</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>4.469945</c:v>
+                  <c:v>4.4806359999999943</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>4.480636</c:v>
+                  <c:v>4.4913239999999943</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>4.491324</c:v>
+                  <c:v>4.5020129999999945</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>4.502013</c:v>
+                  <c:v>4.5127039999999941</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>4.512704</c:v>
+                  <c:v>4.523397999999994</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>4.523398</c:v>
+                  <c:v>4.5340859999999941</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>4.534086</c:v>
+                  <c:v>4.5447719999999938</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>4.544772</c:v>
+                  <c:v>4.555460999999994</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>4.555461</c:v>
+                  <c:v>4.5661579999999944</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>4.566158</c:v>
+                  <c:v>4.5768519999999944</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>4.576852</c:v>
+                  <c:v>4.5875459999999944</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>4.587546</c:v>
+                  <c:v>4.5982369999999939</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>4.598237</c:v>
+                  <c:v>4.608931999999994</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>4.608932</c:v>
+                  <c:v>4.6196219999999943</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>4.619622</c:v>
+                  <c:v>4.6303109999999945</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>4.630311</c:v>
+                  <c:v>4.6410009999999948</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>4.641001</c:v>
+                  <c:v>4.6516969999999951</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>4.651697</c:v>
+                  <c:v>4.6623909999999951</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>4.662391</c:v>
+                  <c:v>4.673084999999995</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>4.673085</c:v>
+                  <c:v>4.6837719999999949</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>4.683772</c:v>
+                  <c:v>4.6944749999999953</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>4.694475</c:v>
+                  <c:v>4.7051599999999949</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>4.70516</c:v>
+                  <c:v>4.7158559999999952</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>4.715856</c:v>
+                  <c:v>4.7265499999999951</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>4.72655</c:v>
+                  <c:v>4.7372439999999951</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>4.737244</c:v>
+                  <c:v>4.747936999999995</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>4.747937</c:v>
+                  <c:v>4.7586279999999945</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>4.758628</c:v>
+                  <c:v>4.7693189999999941</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>4.769319</c:v>
+                  <c:v>4.7800169999999937</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>4.780017</c:v>
+                  <c:v>4.7907139999999941</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>4.790714</c:v>
+                  <c:v>4.801438999999994</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>4.801439</c:v>
+                  <c:v>4.812132999999994</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>4.812133</c:v>
+                  <c:v>4.822826999999994</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>4.822827</c:v>
+                  <c:v>4.8335259999999938</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>4.833526</c:v>
+                  <c:v>4.8442139999999938</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>4.844214</c:v>
+                  <c:v>4.8549089999999939</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>4.854909</c:v>
+                  <c:v>4.8656019999999938</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>4.865602</c:v>
+                  <c:v>4.8762959999999937</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>4.876296</c:v>
+                  <c:v>4.8869909999999939</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>4.886991</c:v>
+                  <c:v>4.8976809999999942</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>4.897681</c:v>
+                  <c:v>4.9083729999999939</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>4.908373</c:v>
+                  <c:v>4.9190629999999942</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>4.919063</c:v>
+                  <c:v>4.9297599999999946</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>4.92976</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>4.940449</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.9404489999999948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$6:$G$469</c:f>
+              <c:f>[1]acp_step_overshoot2!$C$2:$C$464</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="464"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="463"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6800000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4899999999999998</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3600000000000003</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1400000000000006</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.74</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.46</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0000000000000009</c:v>
+                  <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.45</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0199999999999987</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5299999999999994</c:v>
+                  <c:v>7.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.830000000000001</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.7899999999999991</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.09</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.48</c:v>
+                  <c:v>8.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>9.75</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.8099999999999987</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.08</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.319999999999999</c:v>
+                  <c:v>10.35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.440000000000001</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.709999999999999</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.98</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>11.1</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.220000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.34</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.4</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.579999999999998</c:v>
+                  <c:v>11.55</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.489999999999998</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.64</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.49</c:v>
+                  <c:v>11.55</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.49</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.34</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.52</c:v>
+                  <c:v>11.85</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.4</c:v>
+                  <c:v>10.95</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>11.55</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.52</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>11.55</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.49</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.610000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.610000000000001</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.639999999999997</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.58</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.579999999999998</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11.52</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.669999999999998</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11.55</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.64</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.49</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.459999999999999</c:v>
+                  <c:v>12.15</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.219999999999999</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.28</c:v>
+                  <c:v>11.85</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>11.1</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>11.16</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11.129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>11.1</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>11.01</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>11.01</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>11.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>11.129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>11.19</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>11.219999999999999</c:v>
-                </c:pt>
                 <c:pt idx="68">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>11.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>11.25</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>11.37</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>11.34</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11.34</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11.279999999999998</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.28</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.25</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.309999999999999</c:v>
+                  <c:v>11.55</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.16</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11.309999999999999</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.219999999999999</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.22</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>11.13</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>11.04</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>11.1</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>11.16</c:v>
-                </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.07</c:v>
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>10.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19613,7 +20761,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0041-4411-AC8F-942F520E9132}"/>
+              <c16:uniqueId val="{00000000-91E5-486A-87AC-5FE7BDF88954}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19634,6 +20782,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]acp_step_overshoot2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deviancy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -19659,1680 +20818,2797 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$B$464</c:f>
-              <c:strCache>
-                <c:ptCount val="464"/>
+            <c:numRef>
+              <c:f>[1]acp_step_overshoot2!$B$2:$B$464</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="463"/>
                 <c:pt idx="0">
-                  <c:v>time[s]</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0923E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010923</c:v>
+                  <c:v>2.1638999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.021639</c:v>
+                  <c:v>3.2370999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.032371</c:v>
+                  <c:v>4.3060999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.043061</c:v>
+                  <c:v>5.3748999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.053749</c:v>
+                  <c:v>6.4437999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.064438</c:v>
+                  <c:v>7.5130000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.07513</c:v>
+                  <c:v>8.5822999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.085823</c:v>
+                  <c:v>9.651499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.096515</c:v>
+                  <c:v>0.107206</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.107206</c:v>
+                  <c:v>0.117893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.117893</c:v>
+                  <c:v>0.128611</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.128611</c:v>
+                  <c:v>0.139295</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.139295</c:v>
+                  <c:v>0.14998400000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.149984</c:v>
+                  <c:v>0.16067400000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.160674</c:v>
+                  <c:v>0.17135900000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.171359</c:v>
+                  <c:v>0.18204400000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.182044</c:v>
+                  <c:v>0.19272800000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.192728</c:v>
+                  <c:v>0.20342100000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.203421</c:v>
+                  <c:v>0.21410900000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.214109</c:v>
+                  <c:v>0.22480300000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.224803</c:v>
+                  <c:v>0.23552700000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.235527</c:v>
+                  <c:v>0.24621400000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.246214</c:v>
+                  <c:v>0.25690700000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.256907</c:v>
+                  <c:v>0.26760200000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.267602</c:v>
+                  <c:v>0.27829400000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.278294</c:v>
+                  <c:v>0.28898500000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.288985</c:v>
+                  <c:v>0.29967600000000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.299676</c:v>
+                  <c:v>0.31037600000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.310376</c:v>
+                  <c:v>0.32106600000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.321066</c:v>
+                  <c:v>0.331758</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.331758</c:v>
+                  <c:v>0.34245199999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.342452</c:v>
+                  <c:v>0.35314199999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.353142</c:v>
+                  <c:v>0.36383599999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.363836</c:v>
+                  <c:v>0.37452699999999994</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.374527</c:v>
+                  <c:v>0.38521399999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.385214</c:v>
+                  <c:v>0.39590999999999993</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.39591</c:v>
+                  <c:v>0.4065979999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.406598</c:v>
+                  <c:v>0.41728499999999991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.417285</c:v>
+                  <c:v>0.42797499999999988</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.427975</c:v>
+                  <c:v>0.43866999999999989</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.43867</c:v>
+                  <c:v>0.44935999999999987</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.44936</c:v>
+                  <c:v>0.46005199999999985</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.460052</c:v>
+                  <c:v>0.47074399999999983</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.470744</c:v>
+                  <c:v>0.48143499999999984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.481435</c:v>
+                  <c:v>0.49212699999999981</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.492127</c:v>
+                  <c:v>0.50282399999999983</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.502824</c:v>
+                  <c:v>0.51351799999999981</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.513518</c:v>
+                  <c:v>0.52420699999999976</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.524207</c:v>
+                  <c:v>0.53489499999999979</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.534895</c:v>
+                  <c:v>0.5456209999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.545621</c:v>
+                  <c:v>0.5563079999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.556308</c:v>
+                  <c:v>0.5669949999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.566995</c:v>
+                  <c:v>0.57768299999999984</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.577683</c:v>
+                  <c:v>0.58837499999999987</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.588375</c:v>
+                  <c:v>0.59906399999999982</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.599064</c:v>
+                  <c:v>0.60975699999999977</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.609757</c:v>
+                  <c:v>0.62045099999999975</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.620451</c:v>
+                  <c:v>0.63114299999999979</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.631143</c:v>
+                  <c:v>0.64183299999999976</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.641833</c:v>
+                  <c:v>0.65252699999999975</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.652527</c:v>
+                  <c:v>0.66321599999999969</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.663216</c:v>
+                  <c:v>0.67390999999999968</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.67391</c:v>
+                  <c:v>0.68459599999999965</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.684596</c:v>
+                  <c:v>0.69528599999999963</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.695286</c:v>
+                  <c:v>0.70597999999999961</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.70598</c:v>
+                  <c:v>0.71666999999999959</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.71667</c:v>
+                  <c:v>0.72736299999999954</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.727363</c:v>
+                  <c:v>0.73805699999999952</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.738057</c:v>
+                  <c:v>0.74874399999999952</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.748744</c:v>
+                  <c:v>0.7594339999999995</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.759434</c:v>
+                  <c:v>0.77012999999999954</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.77013</c:v>
+                  <c:v>0.78082099999999954</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.780821</c:v>
+                  <c:v>0.79151499999999952</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.791515</c:v>
+                  <c:v>0.80220699999999956</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.802207</c:v>
+                  <c:v>0.81289799999999957</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.812898</c:v>
+                  <c:v>0.82359099999999952</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.823591</c:v>
+                  <c:v>0.83428599999999953</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.834286</c:v>
+                  <c:v>0.84497899999999948</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.844979</c:v>
+                  <c:v>0.85567399999999949</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.855674</c:v>
+                  <c:v>0.86635799999999952</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.866358</c:v>
+                  <c:v>0.87704999999999955</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.87705</c:v>
+                  <c:v>0.88777499999999954</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.887775</c:v>
+                  <c:v>0.89846499999999951</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.898465</c:v>
+                  <c:v>0.90915799999999947</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.909158</c:v>
+                  <c:v>0.91984799999999944</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.919848</c:v>
+                  <c:v>0.9305409999999994</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.930541</c:v>
+                  <c:v>0.94123499999999938</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.941235</c:v>
+                  <c:v>0.95193499999999942</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.951935</c:v>
+                  <c:v>0.9626289999999994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.962629</c:v>
+                  <c:v>0.97331699999999943</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.973317</c:v>
+                  <c:v>0.98400599999999938</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.984006</c:v>
+                  <c:v>0.99469799999999942</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.994698</c:v>
+                  <c:v>1.0053899999999993</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.00539</c:v>
+                  <c:v>1.0160819999999993</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.016082</c:v>
+                  <c:v>1.0267719999999994</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.026772</c:v>
+                  <c:v>1.0374619999999994</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.037462</c:v>
+                  <c:v>1.0481569999999993</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.048157</c:v>
+                  <c:v>1.0588479999999993</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.058848</c:v>
+                  <c:v>1.0695669999999993</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.069567</c:v>
+                  <c:v>1.0802529999999992</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.080253</c:v>
+                  <c:v>1.0909509999999993</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.090951</c:v>
+                  <c:v>1.1016399999999993</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.10164</c:v>
+                  <c:v>1.1123329999999994</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.112333</c:v>
+                  <c:v>1.1230249999999993</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.123025</c:v>
+                  <c:v>1.1337179999999993</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.133718</c:v>
+                  <c:v>1.1444119999999993</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.144412</c:v>
+                  <c:v>1.1551059999999993</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.155106</c:v>
+                  <c:v>1.1657979999999992</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.165798</c:v>
+                  <c:v>1.1764919999999992</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.176492</c:v>
+                  <c:v>1.1871889999999992</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.187189</c:v>
+                  <c:v>1.1978829999999991</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.197883</c:v>
+                  <c:v>1.2085679999999992</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.208568</c:v>
+                  <c:v>1.2192599999999991</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.21926</c:v>
+                  <c:v>1.2299499999999992</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.22995</c:v>
+                  <c:v>1.2406379999999992</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.240638</c:v>
+                  <c:v>1.2513289999999992</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.251329</c:v>
+                  <c:v>1.2620189999999993</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.262019</c:v>
+                  <c:v>1.2727119999999994</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.272712</c:v>
+                  <c:v>1.2834029999999994</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.283403</c:v>
+                  <c:v>1.2940939999999994</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.294094</c:v>
+                  <c:v>1.3047869999999995</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.304787</c:v>
+                  <c:v>1.3154799999999995</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.31548</c:v>
+                  <c:v>1.3261689999999995</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.326169</c:v>
+                  <c:v>1.3368559999999994</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.336856</c:v>
+                  <c:v>1.3475489999999994</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.347549</c:v>
+                  <c:v>1.3582769999999995</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.358277</c:v>
+                  <c:v>1.3689679999999995</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.368968</c:v>
+                  <c:v>1.3796589999999995</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.379659</c:v>
+                  <c:v>1.3903599999999996</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.39036</c:v>
+                  <c:v>1.4010459999999996</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.401046</c:v>
+                  <c:v>1.4117389999999996</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.411739</c:v>
+                  <c:v>1.4224289999999997</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.422429</c:v>
+                  <c:v>1.4331159999999996</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.433116</c:v>
+                  <c:v>1.4438079999999995</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.443808</c:v>
+                  <c:v>1.4545039999999996</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.454504</c:v>
+                  <c:v>1.4651899999999995</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.46519</c:v>
+                  <c:v>1.4758779999999996</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.475878</c:v>
+                  <c:v>1.4865689999999996</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.486569</c:v>
+                  <c:v>1.4972619999999996</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.497262</c:v>
+                  <c:v>1.5079569999999995</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.507957</c:v>
+                  <c:v>1.5186509999999995</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1.518651</c:v>
+                  <c:v>1.5293439999999996</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1.529344</c:v>
+                  <c:v>1.5400379999999996</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.540038</c:v>
+                  <c:v>1.5507299999999995</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.55073</c:v>
+                  <c:v>1.5614119999999996</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1.561412</c:v>
+                  <c:v>1.5721069999999995</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.572107</c:v>
+                  <c:v>1.5828049999999996</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.582805</c:v>
+                  <c:v>1.5935049999999995</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.593505</c:v>
+                  <c:v>1.6041919999999994</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.604192</c:v>
+                  <c:v>1.6148819999999995</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.614882</c:v>
+                  <c:v>1.6255729999999995</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.625573</c:v>
+                  <c:v>1.6362639999999995</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.636264</c:v>
+                  <c:v>1.6469549999999995</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.646955</c:v>
+                  <c:v>1.6576479999999996</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.657648</c:v>
+                  <c:v>1.6683409999999996</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.668341</c:v>
+                  <c:v>1.6790309999999997</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.679031</c:v>
+                  <c:v>1.6897229999999996</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.689723</c:v>
+                  <c:v>1.7004129999999997</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.700413</c:v>
+                  <c:v>1.7111019999999997</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.711102</c:v>
+                  <c:v>1.7217929999999997</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.721793</c:v>
+                  <c:v>1.7324939999999998</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.732494</c:v>
+                  <c:v>1.7431819999999998</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.743182</c:v>
+                  <c:v>1.7538689999999997</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.753869</c:v>
+                  <c:v>1.7645639999999996</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.764564</c:v>
+                  <c:v>1.7752809999999997</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.775281</c:v>
+                  <c:v>1.7859679999999996</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.785968</c:v>
+                  <c:v>1.7966559999999996</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.796656</c:v>
+                  <c:v>1.8073489999999997</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.807349</c:v>
+                  <c:v>1.8180399999999997</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.81804</c:v>
+                  <c:v>1.8287289999999996</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.828729</c:v>
+                  <c:v>1.8394179999999996</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.839418</c:v>
+                  <c:v>1.8501039999999995</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.850104</c:v>
+                  <c:v>1.8607939999999996</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.860794</c:v>
+                  <c:v>1.8714869999999997</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.871487</c:v>
+                  <c:v>1.8821769999999998</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.882177</c:v>
+                  <c:v>1.8928629999999997</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.892863</c:v>
+                  <c:v>1.9035529999999998</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.903553</c:v>
+                  <c:v>1.9142809999999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.914281</c:v>
+                  <c:v>1.9249669999999999</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.924967</c:v>
+                  <c:v>1.9356589999999998</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.935659</c:v>
+                  <c:v>1.9463509999999997</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.946351</c:v>
+                  <c:v>1.9570399999999997</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.95704</c:v>
+                  <c:v>1.9677229999999997</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.967723</c:v>
+                  <c:v>1.9784239999999997</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.978424</c:v>
+                  <c:v>1.9891159999999997</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.989116</c:v>
+                  <c:v>1.9998079999999996</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.999808</c:v>
+                  <c:v>2.0105059999999995</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.010506</c:v>
+                  <c:v>2.0212289999999995</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.021229</c:v>
+                  <c:v>2.0319219999999993</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.031922</c:v>
+                  <c:v>2.0426119999999992</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.042612</c:v>
+                  <c:v>2.0532999999999992</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.0533</c:v>
+                  <c:v>2.0639899999999991</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.06399</c:v>
+                  <c:v>2.074679999999999</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.07468</c:v>
+                  <c:v>2.085373999999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.085374</c:v>
+                  <c:v>2.0960639999999988</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.096064</c:v>
+                  <c:v>2.106755999999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.106756</c:v>
+                  <c:v>2.1174429999999989</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.117443</c:v>
+                  <c:v>2.128140999999999</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.128141</c:v>
+                  <c:v>2.1388299999999991</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.13883</c:v>
+                  <c:v>2.1495239999999991</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.149524</c:v>
+                  <c:v>2.160213999999999</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.160214</c:v>
+                  <c:v>2.1709039999999988</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.170904</c:v>
+                  <c:v>2.1816049999999989</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.181605</c:v>
+                  <c:v>2.1922919999999988</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.192292</c:v>
+                  <c:v>2.2029849999999986</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.202985</c:v>
+                  <c:v>2.2136829999999987</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.213683</c:v>
+                  <c:v>2.2243739999999987</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.224374</c:v>
+                  <c:v>2.2350629999999989</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.235063</c:v>
+                  <c:v>2.2457509999999989</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.245751</c:v>
+                  <c:v>2.256448999999999</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.256449</c:v>
+                  <c:v>2.267145999999999</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.267146</c:v>
+                  <c:v>2.2778329999999989</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.277833</c:v>
+                  <c:v>2.288527999999999</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.288528</c:v>
+                  <c:v>2.2992169999999992</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.299217</c:v>
+                  <c:v>2.3099139999999991</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.309914</c:v>
+                  <c:v>2.3206029999999993</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.320603</c:v>
+                  <c:v>2.3312919999999995</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.331292</c:v>
+                  <c:v>2.3419839999999996</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.341984</c:v>
+                  <c:v>2.3526779999999996</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.352678</c:v>
+                  <c:v>2.3633709999999994</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.363371</c:v>
+                  <c:v>2.3740629999999996</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.374063</c:v>
+                  <c:v>2.3847549999999997</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.384755</c:v>
+                  <c:v>2.3954469999999999</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.395447</c:v>
+                  <c:v>2.4061379999999999</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.406138</c:v>
+                  <c:v>2.4168259999999999</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.416826</c:v>
+                  <c:v>2.427556</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.427556</c:v>
+                  <c:v>2.4382489999999999</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.438249</c:v>
+                  <c:v>2.448941</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.448941</c:v>
+                  <c:v>2.4596290000000001</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.459629</c:v>
+                  <c:v>2.4703219999999999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.470322</c:v>
+                  <c:v>2.4810219999999998</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.481022</c:v>
+                  <c:v>2.4917129999999998</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.491713</c:v>
+                  <c:v>2.5024069999999998</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.502407</c:v>
+                  <c:v>2.5130999999999997</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.5131</c:v>
+                  <c:v>2.5237929999999995</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.523793</c:v>
+                  <c:v>2.5344899999999995</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.53449</c:v>
+                  <c:v>2.5451789999999996</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.545179</c:v>
+                  <c:v>2.5558739999999998</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.555874</c:v>
+                  <c:v>2.5665629999999999</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.566563</c:v>
+                  <c:v>2.5772569999999999</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.577257</c:v>
+                  <c:v>2.5879439999999998</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.587944</c:v>
+                  <c:v>2.598633</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.598633</c:v>
+                  <c:v>2.6093289999999998</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.609329</c:v>
+                  <c:v>2.6200259999999997</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.620026</c:v>
+                  <c:v>2.6307119999999999</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.630712</c:v>
+                  <c:v>2.6414040000000001</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.641404</c:v>
+                  <c:v>2.6520930000000003</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.652093</c:v>
+                  <c:v>2.6628180000000001</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.662818</c:v>
+                  <c:v>2.6735139999999999</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.673514</c:v>
+                  <c:v>2.684202</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.684202</c:v>
+                  <c:v>2.6948940000000001</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.694894</c:v>
+                  <c:v>2.7055880000000001</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.705588</c:v>
+                  <c:v>2.7162800000000002</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.71628</c:v>
+                  <c:v>2.7269700000000001</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.72697</c:v>
+                  <c:v>2.7376620000000003</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.737662</c:v>
+                  <c:v>2.7483570000000004</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.748357</c:v>
+                  <c:v>2.7590440000000003</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.759044</c:v>
+                  <c:v>2.7697330000000004</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.769733</c:v>
+                  <c:v>2.7804290000000003</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.780429</c:v>
+                  <c:v>2.7911160000000002</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.791116</c:v>
+                  <c:v>2.801806</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.801806</c:v>
+                  <c:v>2.812497</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.812497</c:v>
+                  <c:v>2.8231820000000001</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2.823182</c:v>
+                  <c:v>2.8338730000000001</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2.833873</c:v>
+                  <c:v>2.8445650000000002</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2.844565</c:v>
+                  <c:v>2.8552530000000003</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2.855253</c:v>
+                  <c:v>2.8659440000000003</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2.865944</c:v>
+                  <c:v>2.8766330000000004</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2.876633</c:v>
+                  <c:v>2.8873240000000004</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2.887324</c:v>
+                  <c:v>2.8980200000000003</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2.89802</c:v>
+                  <c:v>2.9087160000000001</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2.908716</c:v>
+                  <c:v>2.9194080000000002</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2.919408</c:v>
+                  <c:v>2.9301010000000001</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2.930101</c:v>
+                  <c:v>2.9408189999999998</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2.940819</c:v>
+                  <c:v>2.951514</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2.951514</c:v>
+                  <c:v>2.9622060000000001</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2.962206</c:v>
+                  <c:v>2.9728980000000003</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2.972898</c:v>
+                  <c:v>2.9835880000000001</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2.983588</c:v>
+                  <c:v>2.9942800000000003</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2.99428</c:v>
+                  <c:v>3.0050050000000001</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>3.005005</c:v>
+                  <c:v>3.015701</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>3.015701</c:v>
+                  <c:v>3.0263939999999998</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>3.026394</c:v>
+                  <c:v>3.0370869999999996</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>3.037087</c:v>
+                  <c:v>3.0477809999999996</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>3.047781</c:v>
+                  <c:v>3.0584719999999996</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>3.058472</c:v>
+                  <c:v>3.0691639999999998</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>3.069164</c:v>
+                  <c:v>3.0798519999999998</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>3.079852</c:v>
+                  <c:v>3.0905479999999996</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>3.090548</c:v>
+                  <c:v>3.1012379999999995</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>3.101238</c:v>
+                  <c:v>3.1119299999999996</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>3.11193</c:v>
+                  <c:v>3.1226229999999995</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>3.122623</c:v>
+                  <c:v>3.1333179999999996</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>3.133318</c:v>
+                  <c:v>3.1440119999999996</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>3.144012</c:v>
+                  <c:v>3.1547029999999996</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>3.154703</c:v>
+                  <c:v>3.1653949999999997</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>3.165395</c:v>
+                  <c:v>3.1760859999999997</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>3.176086</c:v>
+                  <c:v>3.1867769999999997</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>3.186777</c:v>
+                  <c:v>3.1974689999999999</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>3.197469</c:v>
+                  <c:v>3.2081629999999999</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>3.208163</c:v>
+                  <c:v>3.2188539999999999</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>3.218854</c:v>
+                  <c:v>3.2295479999999999</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>3.229548</c:v>
+                  <c:v>3.2402389999999999</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>3.240239</c:v>
+                  <c:v>3.2509349999999997</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>3.250935</c:v>
+                  <c:v>3.2616269999999998</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>3.261627</c:v>
+                  <c:v>3.2723179999999998</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>3.272318</c:v>
+                  <c:v>3.28301</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>3.28301</c:v>
+                  <c:v>3.293698</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>3.293698</c:v>
+                  <c:v>3.3043960000000001</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>3.304396</c:v>
+                  <c:v>3.3150880000000003</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>3.315088</c:v>
+                  <c:v>3.3257790000000003</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>3.325779</c:v>
+                  <c:v>3.3364720000000001</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>3.336472</c:v>
+                  <c:v>3.3471630000000001</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>3.347163</c:v>
+                  <c:v>3.3578550000000003</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>3.357855</c:v>
+                  <c:v>3.3685490000000002</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>3.368549</c:v>
+                  <c:v>3.3792380000000004</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>3.379238</c:v>
+                  <c:v>3.3899240000000006</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>3.389924</c:v>
+                  <c:v>3.4006140000000005</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>3.400614</c:v>
+                  <c:v>3.4113110000000004</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>3.411311</c:v>
+                  <c:v>3.4219990000000005</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>3.421999</c:v>
+                  <c:v>3.4326870000000005</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>3.432687</c:v>
+                  <c:v>3.4433740000000004</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>3.443374</c:v>
+                  <c:v>3.4540730000000002</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>3.454073</c:v>
+                  <c:v>3.4647610000000002</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>3.464761</c:v>
+                  <c:v>3.4754610000000001</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>3.475461</c:v>
+                  <c:v>3.4861520000000001</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>3.486152</c:v>
+                  <c:v>3.496842</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>3.496842</c:v>
+                  <c:v>3.5075409999999998</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>3.507541</c:v>
+                  <c:v>3.5182289999999998</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>3.518229</c:v>
+                  <c:v>3.5289169999999999</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>3.528917</c:v>
+                  <c:v>3.5396459999999998</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>3.539646</c:v>
+                  <c:v>3.5503709999999997</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>3.550371</c:v>
+                  <c:v>3.5610739999999996</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>3.561074</c:v>
+                  <c:v>3.5717649999999996</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>3.571765</c:v>
+                  <c:v>3.5824559999999996</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>3.582456</c:v>
+                  <c:v>3.5931489999999995</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>3.593149</c:v>
+                  <c:v>3.6038429999999995</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>3.603843</c:v>
+                  <c:v>3.6145369999999994</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>3.614537</c:v>
+                  <c:v>3.6252309999999994</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>3.625231</c:v>
+                  <c:v>3.6359239999999993</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>3.635924</c:v>
+                  <c:v>3.6466179999999992</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>3.646618</c:v>
+                  <c:v>3.6573089999999993</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>3.657309</c:v>
+                  <c:v>3.6679989999999991</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>3.667999</c:v>
+                  <c:v>3.6786969999999992</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>3.678697</c:v>
+                  <c:v>3.6893859999999994</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>3.689386</c:v>
+                  <c:v>3.7000769999999994</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>3.700077</c:v>
+                  <c:v>3.7107729999999992</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>3.710773</c:v>
+                  <c:v>3.7214609999999992</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>3.721461</c:v>
+                  <c:v>3.7321529999999994</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>3.732153</c:v>
+                  <c:v>3.7428409999999994</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>3.742841</c:v>
+                  <c:v>3.7535409999999994</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>3.753541</c:v>
+                  <c:v>3.7642369999999992</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>3.764237</c:v>
+                  <c:v>3.7749309999999991</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>3.774931</c:v>
+                  <c:v>3.7856229999999993</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>3.785623</c:v>
+                  <c:v>3.7963109999999993</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>3.796311</c:v>
+                  <c:v>3.8070039999999992</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>3.807004</c:v>
+                  <c:v>3.8176919999999992</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>3.817692</c:v>
+                  <c:v>3.8283829999999992</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>3.828383</c:v>
+                  <c:v>3.8390769999999992</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>3.839077</c:v>
+                  <c:v>3.8497749999999993</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>3.849775</c:v>
+                  <c:v>3.8604719999999992</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>3.860472</c:v>
+                  <c:v>3.8711609999999994</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>3.871161</c:v>
+                  <c:v>3.8818539999999992</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>3.881854</c:v>
+                  <c:v>3.8925519999999993</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>3.892552</c:v>
+                  <c:v>3.9032739999999992</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>3.903274</c:v>
+                  <c:v>3.9139609999999991</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>3.913961</c:v>
+                  <c:v>3.9246529999999993</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>3.924653</c:v>
+                  <c:v>3.9353479999999994</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>3.935348</c:v>
+                  <c:v>3.9460409999999992</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>3.946041</c:v>
+                  <c:v>3.9567269999999994</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>3.956727</c:v>
+                  <c:v>3.9674129999999996</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>3.967413</c:v>
+                  <c:v>3.9781119999999994</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>3.978112</c:v>
+                  <c:v>3.9888039999999996</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>3.988804</c:v>
+                  <c:v>3.9994889999999996</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>3.999489</c:v>
+                  <c:v>4.0101819999999995</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>4.010182</c:v>
+                  <c:v>4.020872999999999</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>4.020873</c:v>
+                  <c:v>4.0315649999999987</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>4.031565</c:v>
+                  <c:v>4.0422579999999986</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>4.042258</c:v>
+                  <c:v>4.0529489999999981</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>4.052949</c:v>
+                  <c:v>4.0636349999999979</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>4.063635</c:v>
+                  <c:v>4.0743279999999977</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>4.074328</c:v>
+                  <c:v>4.0850159999999978</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>4.085016</c:v>
+                  <c:v>4.0957129999999982</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>4.095713</c:v>
+                  <c:v>4.1064049999999979</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>4.106405</c:v>
+                  <c:v>4.1170989999999978</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>4.117099</c:v>
+                  <c:v>4.1277899999999974</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>4.12779</c:v>
+                  <c:v>4.1384799999999977</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>4.13848</c:v>
+                  <c:v>4.1491749999999978</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>4.149175</c:v>
+                  <c:v>4.1598679999999977</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>4.159868</c:v>
+                  <c:v>4.1705589999999972</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>4.170559</c:v>
+                  <c:v>4.1812559999999976</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>4.181256</c:v>
+                  <c:v>4.1919499999999976</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>4.19195</c:v>
+                  <c:v>4.2026439999999976</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>4.202644</c:v>
+                  <c:v>4.2133379999999976</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>4.213338</c:v>
+                  <c:v>4.2240329999999977</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>4.224033</c:v>
+                  <c:v>4.2347219999999979</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>4.234722</c:v>
+                  <c:v>4.2454159999999979</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>4.245416</c:v>
+                  <c:v>4.2561069999999974</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>4.256107</c:v>
+                  <c:v>4.2668069999999974</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>4.266807</c:v>
+                  <c:v>4.2774939999999972</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>4.277494</c:v>
+                  <c:v>4.2881829999999974</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>4.288183</c:v>
+                  <c:v>4.298873999999997</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>4.298874</c:v>
+                  <c:v>4.3095629999999971</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>4.309563</c:v>
+                  <c:v>4.3202539999999967</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>4.320254</c:v>
+                  <c:v>4.3309489999999968</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>4.330949</c:v>
+                  <c:v>4.3416449999999971</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>4.341645</c:v>
+                  <c:v>4.3523379999999969</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>4.352338</c:v>
+                  <c:v>4.3630309999999968</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>4.363031</c:v>
+                  <c:v>4.3737259999999969</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>4.373726</c:v>
+                  <c:v>4.3844119999999966</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>4.384412</c:v>
+                  <c:v>4.3951049999999965</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>4.395105</c:v>
+                  <c:v>4.4057899999999961</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>4.40579</c:v>
+                  <c:v>4.4164829999999959</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>4.416483</c:v>
+                  <c:v>4.4271739999999955</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>4.427174</c:v>
+                  <c:v>4.4378659999999952</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>4.437866</c:v>
+                  <c:v>4.4485579999999949</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>4.448558</c:v>
+                  <c:v>4.4592509999999947</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>4.459251</c:v>
+                  <c:v>4.4699449999999947</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>4.469945</c:v>
+                  <c:v>4.4806359999999943</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>4.480636</c:v>
+                  <c:v>4.4913239999999943</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>4.491324</c:v>
+                  <c:v>4.5020129999999945</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>4.502013</c:v>
+                  <c:v>4.5127039999999941</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>4.512704</c:v>
+                  <c:v>4.523397999999994</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>4.523398</c:v>
+                  <c:v>4.5340859999999941</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>4.534086</c:v>
+                  <c:v>4.5447719999999938</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>4.544772</c:v>
+                  <c:v>4.555460999999994</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>4.555461</c:v>
+                  <c:v>4.5661579999999944</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>4.566158</c:v>
+                  <c:v>4.5768519999999944</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>4.576852</c:v>
+                  <c:v>4.5875459999999944</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>4.587546</c:v>
+                  <c:v>4.5982369999999939</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>4.598237</c:v>
+                  <c:v>4.608931999999994</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>4.608932</c:v>
+                  <c:v>4.6196219999999943</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>4.619622</c:v>
+                  <c:v>4.6303109999999945</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>4.630311</c:v>
+                  <c:v>4.6410009999999948</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>4.641001</c:v>
+                  <c:v>4.6516969999999951</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>4.651697</c:v>
+                  <c:v>4.6623909999999951</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>4.662391</c:v>
+                  <c:v>4.673084999999995</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>4.673085</c:v>
+                  <c:v>4.6837719999999949</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>4.683772</c:v>
+                  <c:v>4.6944749999999953</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>4.694475</c:v>
+                  <c:v>4.7051599999999949</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>4.70516</c:v>
+                  <c:v>4.7158559999999952</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>4.715856</c:v>
+                  <c:v>4.7265499999999951</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>4.72655</c:v>
+                  <c:v>4.7372439999999951</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>4.737244</c:v>
+                  <c:v>4.747936999999995</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>4.747937</c:v>
+                  <c:v>4.7586279999999945</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>4.758628</c:v>
+                  <c:v>4.7693189999999941</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>4.769319</c:v>
+                  <c:v>4.7800169999999937</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>4.780017</c:v>
+                  <c:v>4.7907139999999941</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>4.790714</c:v>
+                  <c:v>4.801438999999994</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>4.801439</c:v>
+                  <c:v>4.812132999999994</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>4.812133</c:v>
+                  <c:v>4.822826999999994</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>4.822827</c:v>
+                  <c:v>4.8335259999999938</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>4.833526</c:v>
+                  <c:v>4.8442139999999938</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>4.844214</c:v>
+                  <c:v>4.8549089999999939</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>4.854909</c:v>
+                  <c:v>4.8656019999999938</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>4.865602</c:v>
+                  <c:v>4.8762959999999937</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>4.876296</c:v>
+                  <c:v>4.8869909999999939</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>4.886991</c:v>
+                  <c:v>4.8976809999999942</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>4.897681</c:v>
+                  <c:v>4.9083729999999939</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>4.908373</c:v>
+                  <c:v>4.9190629999999942</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>4.919063</c:v>
+                  <c:v>4.9297599999999946</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>4.92976</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>4.940449</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.9404489999999948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$6:$H$469</c:f>
+              <c:f>[1]acp_step_overshoot2!$E$2:$E$464</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="464"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="463"/>
                 <c:pt idx="0">
-                  <c:v>0.91081081081081083</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84864864864864864</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77567567567567564</c:v>
+                  <c:v>0.94594594594594594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69729729729729728</c:v>
+                  <c:v>0.86486486486486491</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62702702702702695</c:v>
+                  <c:v>0.74324324324324331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57297297297297289</c:v>
+                  <c:v>0.68918918918918914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50810810810810814</c:v>
+                  <c:v>0.63513513513513509</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45945945945945937</c:v>
+                  <c:v>0.55405405405405406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41891891891891886</c:v>
+                  <c:v>0.51351351351351349</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36756756756756764</c:v>
+                  <c:v>0.47297297297297297</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32162162162162167</c:v>
+                  <c:v>0.36486486486486486</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29459459459459447</c:v>
+                  <c:v>0.39189189189189189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24324324324324303</c:v>
+                  <c:v>0.35135135135135132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20810810810810815</c:v>
+                  <c:v>0.25675675675675674</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18108108108108106</c:v>
+                  <c:v>0.24324324324324317</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14594594594594587</c:v>
+                  <c:v>0.22972972972972963</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.13513513513513514</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17567567567567563</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.12162162162162159</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.11621621621621631</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.1891891891891855E-2</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0270270270270371E-2</c:v>
+                  <c:v>6.7567567567567571E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9459459459459317E-2</c:v>
+                  <c:v>0.10810810810810804</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5135135135135186E-2</c:v>
+                  <c:v>0.10810810810810804</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.081081081081074E-2</c:v>
+                  <c:v>5.4054054054054022E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.0810810810811061E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.3513513513513707E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.162162162162164E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.7027027027027091E-2</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>-4.3243243243243121E-2</c:v>
+                  <c:v>-4.054054054054064E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.5135135135135026E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.8648648648648735E-2</c:v>
+                  <c:v>-5.4054054054054022E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3.5135135135135186E-2</c:v>
+                  <c:v>-4.054054054054064E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.5135135135135186E-2</c:v>
+                  <c:v>-8.1081081081081113E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.162162162162164E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.7837837837837833E-2</c:v>
+                  <c:v>-6.7567567567567571E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.7027027027027091E-2</c:v>
+                  <c:v>1.3513513513513545E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-4.054054054054064E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-3.7837837837837833E-2</c:v>
+                  <c:v>-1.3513513513513545E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>-8.1081081081081113E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>-4.054054054054064E-2</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>-3.5135135135135186E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-4.054054054054064E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-4.054054054054064E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-4.5945945945946247E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-5.1351351351351542E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-4.5945945945946087E-2</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>-4.8648648648648415E-2</c:v>
+                  <c:v>-5.4054054054054022E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-4.324324324324328E-2</c:v>
+                  <c:v>-5.4054054054054022E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-4.3243243243243121E-2</c:v>
+                  <c:v>-5.4054054054054022E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.7837837837837833E-2</c:v>
+                  <c:v>-2.7027027027027091E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-5.1351351351351215E-2</c:v>
+                  <c:v>-5.4054054054054022E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-4.054054054054064E-2</c:v>
+                  <c:v>-2.7027027027027091E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.8648648648648735E-2</c:v>
+                  <c:v>-5.4054054054054022E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3.5135135135135186E-2</c:v>
+                  <c:v>-2.7027027027027091E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.2432432432432386E-2</c:v>
+                  <c:v>-9.4594594594594655E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.081081081081074E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.6216216216216193E-2</c:v>
+                  <c:v>-6.7567567567567571E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>-5.4054054054054508E-3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-2.7027027027026452E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.1081081081080964E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.1081081081079351E-3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.1081081081080964E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.1081081081079351E-3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-2.7027027027026452E-3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-8.1081081081080964E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-1.081081081081074E-2</c:v>
-                </c:pt>
                 <c:pt idx="68">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>-1.3513513513513545E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-1.3513513513513545E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-2.4324324324324288E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-2.162162162162164E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-2.162162162162164E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-2.7027027027027091E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.621621621621603E-2</c:v>
+                  <c:v>-2.7027027027027091E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.6216216216216193E-2</c:v>
+                  <c:v>-1.3513513513513545E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.3513513513513545E-2</c:v>
+                  <c:v>-2.7027027027027091E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.8918918918918837E-2</c:v>
+                  <c:v>-4.054054054054064E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-5.4054054054054508E-3</c:v>
+                  <c:v>2.7027027027026931E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.8918918918918837E-2</c:v>
+                  <c:v>-2.7027027027027091E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.081081081081074E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.0810810810810902E-2</c:v>
+                  <c:v>-5.4054054054054022E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-2.7027027027028052E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.4054054054054508E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.7027027027026452E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>-5.4054054054054508E-3</c:v>
-                </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.7027027027026452E-3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>8.1081081081081113E-2</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>4.054054054054048E-2</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>-5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>-6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>2.7027027027026931E-2</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>-2.7027027027027091E-2</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>5.4054054054054022E-2</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-4.054054054054064E-2</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>-1.3513513513513545E-2</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.3513513513513545E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21340,7 +23616,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0041-4411-AC8F-942F520E9132}"/>
+              <c16:uniqueId val="{00000001-91E5-486A-87AC-5FE7BDF88954}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21359,7 +23635,8 @@
         <c:axId val="559440095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -21398,8 +23675,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -21515,7 +23797,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Title</a:t>
+                  <a:t>Speed [rad/s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -21549,7 +23831,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -21619,7 +23901,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Title</a:t>
+                  <a:t>Deviancy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -21653,7 +23935,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -21853,7 +24135,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -21864,7 +24146,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{9541FB3A-6249-433B-811D-17DB75BF73AB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>deviancy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -21895,7 +24177,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -21933,7 +24215,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{DCD67487-39A3-43B7-9A05-F9EA017CA7A2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>deviancy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -21947,13 +24229,67 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
-        <cx:title/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Deviancy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Deviancy</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
         <cx:numFmt formatCode="#,##0.000" sourceLinked="0"/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
-        <cx:title/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of samples</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Amount of samples</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -21967,7 +24303,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -22005,16 +24341,74 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{45395434-3384-498B-9A14-EEFE4BB24A82}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.014999999999999999"/>
+            </cx:binning>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Deviancy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Deviancy</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Amount</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -26133,8 +28527,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6374466" y="5839945"/>
-              <a:ext cx="8192061" cy="5150038"/>
+              <a:off x="6353175" y="5758889"/>
+              <a:ext cx="8153214" cy="5079441"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26211,8 +28605,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6444315" y="11459882"/>
-              <a:ext cx="8101853" cy="3313206"/>
+              <a:off x="6501465" y="11078882"/>
+              <a:ext cx="8184403" cy="3205256"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26245,26 +28639,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>239993</xdr:colOff>
+      <xdr:colOff>379105</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>122518</xdr:rowOff>
+      <xdr:rowOff>104254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>554060</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>179894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A022C4C-5BE5-4491-9DBA-FC9A9CAD5A66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F963342-1C6E-4DFC-8665-EF9EF7F5EC7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -48958,8 +51354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE13F8D-90A8-4A38-9C58-4849CDA9FE4C}">
   <dimension ref="A1:H464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF48" sqref="AF48"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
